--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,39 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jose/Desktop/TEI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jose/Desktop/GIT/Simulador-estacionamientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA7378-A582-264F-92CD-9A8AA4973674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58193C49-6A49-B549-BF24-FA9417A66C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="27680" windowHeight="17040" xr2:uid="{6E19E79E-F611-3C4D-8DA8-F077BAB3CF99}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="27920" windowHeight="17040" xr2:uid="{6E19E79E-F611-3C4D-8DA8-F077BAB3CF99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Hoja1!$G$22</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Hoja1!$G$22</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$E$2:$E$31</definedName>
-    <definedName name="report" localSheetId="0">Hoja1!$A$1:$E$31</definedName>
-    <definedName name="report_1" localSheetId="0">Hoja1!$A$37:$E$67</definedName>
+    <definedName name="report" localSheetId="0">Hoja1!$A$11:$E$41</definedName>
+    <definedName name="report_1" localSheetId="0">Hoja1!$A$51:$E$81</definedName>
+    <definedName name="report_2" localSheetId="0">Hoja1!$A$91:$E$121</definedName>
+    <definedName name="report_3" localSheetId="0">Hoja1!$A$131:$E$161</definedName>
+    <definedName name="report_4" localSheetId="0">Hoja1!$A$170:$E$200</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +34,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{2AF61C3B-EC39-7A49-97B9-A9B3727F1674}" name="report" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Jose/Downloads/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
+    <textPr sourceFile="/Users/Jose/Downloads/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -62,6 +45,39 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{C16D074A-86D3-2B4A-B7F9-72B296563850}" name="report1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Jose/Desktop/TEI/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{B112D546-2E21-B74F-BCD4-473AD32C9CB9}" name="report2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Jose/Desktop/TEI/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{F5F25693-2913-B14E-B664-C5BE0EB08EC0}" name="report3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Jose/Desktop/TEI/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{0DD7CAE9-470D-544F-9C6E-3E7E25B2659E}" name="report4" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/Jose/Desktop/TEI/report.csv" decimal="," thousands="." tab="0" comma="1" delimiter="|">
       <textFields count="5">
         <textField/>
@@ -76,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
   <si>
     <t>Tiempo</t>
   </si>
@@ -84,15 +100,6 @@
     <t>Numero Est.</t>
   </si>
   <si>
-    <t>Ocupado</t>
-  </si>
-  <si>
-    <t>Cantidad Autos</t>
-  </si>
-  <si>
-    <t>Sin cupo</t>
-  </si>
-  <si>
     <t>Llegada</t>
   </si>
   <si>
@@ -271,6 +278,276 @@
   </si>
   <si>
     <t>382.4</t>
+  </si>
+  <si>
+    <t>Autos en sistema</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>66.2</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>113.7</t>
+  </si>
+  <si>
+    <t>123.3</t>
+  </si>
+  <si>
+    <t>145.6</t>
+  </si>
+  <si>
+    <t>152.6</t>
+  </si>
+  <si>
+    <t>187.1</t>
+  </si>
+  <si>
+    <t>197.3</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>205.8</t>
+  </si>
+  <si>
+    <t>208.6</t>
+  </si>
+  <si>
+    <t>254.1</t>
+  </si>
+  <si>
+    <t>324.1</t>
+  </si>
+  <si>
+    <t>327.5</t>
+  </si>
+  <si>
+    <t>408.2</t>
+  </si>
+  <si>
+    <t>444.6</t>
+  </si>
+  <si>
+    <t>465.3</t>
+  </si>
+  <si>
+    <t>509.1</t>
+  </si>
+  <si>
+    <t>527.8</t>
+  </si>
+  <si>
+    <t>551.2</t>
+  </si>
+  <si>
+    <t>553.1</t>
+  </si>
+  <si>
+    <t>611.3</t>
+  </si>
+  <si>
+    <t>645.7</t>
+  </si>
+  <si>
+    <t>649.4</t>
+  </si>
+  <si>
+    <t>650.3</t>
+  </si>
+  <si>
+    <t>656.5</t>
+  </si>
+  <si>
+    <t>671.0</t>
+  </si>
+  <si>
+    <t>Tipo de evento</t>
+  </si>
+  <si>
+    <t>Cola por estacionamiento</t>
+  </si>
+  <si>
+    <t>Autos en el sistema</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>87.3</t>
+  </si>
+  <si>
+    <t>93.7</t>
+  </si>
+  <si>
+    <t>93.9</t>
+  </si>
+  <si>
+    <t>110.4</t>
+  </si>
+  <si>
+    <t>132.2</t>
+  </si>
+  <si>
+    <t>132.3</t>
+  </si>
+  <si>
+    <t>141.6</t>
+  </si>
+  <si>
+    <t>145.2</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>264.9</t>
+  </si>
+  <si>
+    <t>305.5</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
+    <t>343.4</t>
+  </si>
+  <si>
+    <t>355.1</t>
+  </si>
+  <si>
+    <t>373.3</t>
+  </si>
+  <si>
+    <t>386.6</t>
+  </si>
+  <si>
+    <t>391.4</t>
+  </si>
+  <si>
+    <t>424.4</t>
+  </si>
+  <si>
+    <t>462.5</t>
+  </si>
+  <si>
+    <t>467.9</t>
+  </si>
+  <si>
+    <t>492.8</t>
+  </si>
+  <si>
+    <t>497.1</t>
+  </si>
+  <si>
+    <t>502.6</t>
+  </si>
+  <si>
+    <t>504.2</t>
+  </si>
+  <si>
+    <t>516.1</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>151.7</t>
+  </si>
+  <si>
+    <t>154.9</t>
+  </si>
+  <si>
+    <t>190.1</t>
+  </si>
+  <si>
+    <t>196.5</t>
+  </si>
+  <si>
+    <t>250.8</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>264.1</t>
+  </si>
+  <si>
+    <t>270.9</t>
+  </si>
+  <si>
+    <t>290.2</t>
+  </si>
+  <si>
+    <t>293.3</t>
+  </si>
+  <si>
+    <t>294.2</t>
+  </si>
+  <si>
+    <t>299.3</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>303.0</t>
+  </si>
+  <si>
+    <t>326.8</t>
+  </si>
+  <si>
+    <t>328.9</t>
+  </si>
+  <si>
+    <t>340.1</t>
+  </si>
+  <si>
+    <t>341.1</t>
+  </si>
+  <si>
+    <t>356.7</t>
+  </si>
+  <si>
+    <t>396.1</t>
+  </si>
+  <si>
+    <t>410.5</t>
+  </si>
+  <si>
+    <t>420.3</t>
+  </si>
+  <si>
+    <t>428.9</t>
+  </si>
+  <si>
+    <t>473.2</t>
+  </si>
+  <si>
+    <t>482.2</t>
   </si>
 </sst>
 </file>
@@ -359,14 +636,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Autos</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Autos en el sistema</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> en el estacionamiento</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -443,7 +738,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:f>Hoja1!$A$12:$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -541,7 +836,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$31</c:f>
+              <c:f>Hoja1!$E$12:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -962,13 +1257,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -976,13 +1285,43 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Autos</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Autos en el sistema</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> en el estacionamiento</a:t>
-            </a:r>
+            <a:endParaRPr lang="es-CL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -995,26 +1334,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1024,8 +1343,334 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-A0E0-E349-96D6-B5D67E63EF9D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$52:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>274.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>331.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>335.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>336.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>353.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>353.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>368.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>377.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$52:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-A0E0-E349-96D6-B5D67E63EF9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -1051,7 +1696,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{0000000F-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1070,7 +1715,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{00000011-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1089,7 +1734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{00000013-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1108,7 +1753,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{00000015-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1127,7 +1772,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{00000017-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1146,13 +1791,13 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-1641-2846-B38E-ADD093F1E823}"/>
+                <c16:uniqueId val="{00000019-A0E0-E349-96D6-B5D67E63EF9D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$38:$A$67</c:f>
+              <c:f>Hoja1!$A$52:$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -1250,7 +1895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$38:$E$67</c:f>
+              <c:f>Hoja1!$E$52:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1349,7 +1994,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1641-2846-B38E-ADD093F1E823}"/>
+              <c16:uniqueId val="{0000001A-A0E0-E349-96D6-B5D67E63EF9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1411,26 +2056,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1543,26 +2168,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1599,6 +2204,76 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> en el sistema</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1606,33 +2281,1609 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-F419-C547-910E-DA2F2D20C7D2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$92:$A$121</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>408.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>444.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>465.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>509.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>527.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>551.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>553.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>611.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>645.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>649.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>650.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>656.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>671.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$92:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F419-C547-910E-DA2F2D20C7D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1907101327"/>
+        <c:axId val="1852279823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1907101327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (en minutos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852279823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1852279823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> de autos en estacionamiento</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0496886073416688E-2"/>
+              <c:y val="0.17952962958203014"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907101327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> en el sistema</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-298A-3F45-A983-18ABBA6CF265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-298A-3F45-A983-18ABBA6CF265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-298A-3F45-A983-18ABBA6CF265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-298A-3F45-A983-18ABBA6CF265}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$132:$A$161</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>343.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>373.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>386.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>391.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>424.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>467.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>492.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>497.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>502.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>504.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>516.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$132:$E$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-298A-3F45-A983-18ABBA6CF265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1907101327"/>
+        <c:axId val="1852279823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1907101327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (en minutos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852279823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1852279823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> de autos en estacionamiento</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0496886073416688E-2"/>
+              <c:y val="0.17952962958203014"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907101327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Autos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> en el sistema</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-643A-6D4A-8684-08293A325E54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$171:$A$200</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>290.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>293.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>326.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>328.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>341.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>356.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>396.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>410.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>420.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>428.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>473.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>482.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$171:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-643A-6D4A-8684-08293A325E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1907101327"/>
+        <c:axId val="1852279823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1907101327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> (en minutos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852279823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1852279823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
+                  <a:t> de autos en estacionamiento</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0496886073416688E-2"/>
+              <c:y val="0.17952962958203014"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907101327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1652,46 +3903,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2234,523 +4445,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>89747</xdr:rowOff>
+      <xdr:colOff>836998</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>772160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637182</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2777,16 +4485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10161</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50564</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1285239</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2809,8 +4517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3799840" y="0"/>
-          <a:ext cx="2651760" cy="863364"/>
+          <a:off x="10161" y="965429"/>
+          <a:ext cx="2697478" cy="866789"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2821,16 +4529,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>111758</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3311</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>7341</xdr:rowOff>
+      <xdr:colOff>668791</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2859,16 +4567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>526143</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1592543</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2891,8 +4599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3728720" y="7528560"/>
-          <a:ext cx="2964543" cy="965200"/>
+          <a:off x="0" y="8990629"/>
+          <a:ext cx="3014943" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2901,14 +4609,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15839</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666079</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>109913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E83BE81-E874-E64F-B2ED-4384CB7DBF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13270</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>106166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1322084</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2BD87B-87C6-4E43-94EF-D677F639DCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13270" y="15142966"/>
+          <a:ext cx="2731214" cy="909144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1424215</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9B8834-C92B-EC4F-8403-0A71DA05BAB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="25692100"/>
+          <a:ext cx="2808515" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>102207</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB553F4A-A231-5C4B-A43F-0B06E1CAF74A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4A5C49-8FF5-CE46-A595-579B110D323D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33083500"/>
+          <a:ext cx="3276600" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>102207</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B27DAC-9957-D24E-8D74-FD50364F313A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="report_4" connectionId="5" xr16:uid="{679EA55F-4723-F541-93A4-5DB5B185AD0D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="report_3" connectionId="4" xr16:uid="{B030B7CE-F37A-1145-9ED6-5C056DAF1738}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="report_2" connectionId="3" xr16:uid="{9DC858E3-CBEB-A845-A5D8-D651E0AA2C98}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="report_1" connectionId="2" xr16:uid="{902F3AA0-5D6D-5040-97BD-75895CFE23C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="report" connectionId="1" xr16:uid="{A79726FB-FBAF-0C4E-8432-0581D5C08A52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -3209,220 +5175,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9DFC52-A065-0C41-94C6-2521CCA23FDB}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A11:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3430,50 +5226,50 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3481,33 +5277,33 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3515,41 +5311,41 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3558,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3566,33 +5362,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3600,16 +5396,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3617,16 +5413,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3634,33 +5430,33 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3668,16 +5464,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3685,16 +5481,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -3702,16 +5498,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -3719,562 +5515,2313 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45">
         <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>49</v>
+      <c r="A52">
+        <v>0</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
         <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
         <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>5</v>
-      </c>
-      <c r="E60">
-        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>9</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>64</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121">
         <v>4</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>96</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>108</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>113</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>117</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>119</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>122</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170" t="s">
+        <v>91</v>
+      </c>
+      <c r="E170" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>124</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>125</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>126</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>127</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>130</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>131</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>132</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>134</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>143</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>144</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195">
         <v>9</v>
       </c>
-      <c r="E67">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>150</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>151</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200">
         <v>10</v>
       </c>
     </row>
